--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\python\AIWordsList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\python\AIWordsComparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D8757-49E5-4014-B268-901F411AAF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7FD205-50E9-45DD-9E98-322C8A7A1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="21975" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>deny</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,26 @@
   </si>
   <si>
     <t>increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leverage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safeguard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,12 +401,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
